--- a/dtpu_configurations/only_integer16/80mhz/mxu_16x16/utilization.xlsx
+++ b/dtpu_configurations/only_integer16/80mhz/mxu_16x16/utilization.xlsx
@@ -154,13 +154,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>31.498119354248047</v>
+        <v>45.20488739013672</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>6.448275566101074</v>
+        <v>7.551724433898926</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>22.090225219726562</v>
+        <v>30.4436092376709</v>
       </c>
       <c r="E2" t="n" s="4">
         <v>57.85714340209961</v>
